--- a/Annotated_Emotion_Data.xlsx
+++ b/Annotated_Emotion_Data.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agniv\Downloads\dsp_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro Millan Ruiz\Desktop\dsp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E6E86-A3CA-497E-A027-B828518C81B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72423676-3945-4136-9326-0BF55F10D6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urls" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3252,7 +3265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3262,18 +3275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K801"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H476" sqref="H476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>772</v>
       </c>
@@ -3308,7 +3321,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3388,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3428,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3589,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3824,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3944,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -4064,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -4104,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4302,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4342,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4382,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4422,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -4462,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -4542,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -4620,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -4659,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -4698,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -4736,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -4775,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -4813,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -4891,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -4969,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -5006,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -5044,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -5196,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -5234,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -5272,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -5309,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -5347,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -5385,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -5461,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -5536,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -5573,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -5606,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -5643,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -5717,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -5754,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -5789,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -5862,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -5936,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -5973,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -6047,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -6084,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -6120,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -6157,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -6194,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -6268,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -6305,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -6342,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -6379,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -6453,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -6564,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -6637,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -6674,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -6710,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -6747,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -6784,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -6821,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -6895,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -6932,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -7005,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -7041,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -7078,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -7152,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -7189,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -7226,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -7263,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -7300,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -7374,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -7411,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -7448,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -7485,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -7522,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -7559,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -7596,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -7633,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -7670,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -7707,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -7781,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -7817,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -7854,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -7891,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -7928,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -8039,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -8076,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -8113,7 +8126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -8150,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -8187,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -8224,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -8298,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -8335,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -8372,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8409,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -8446,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -8482,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -8519,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -8556,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -8592,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -8629,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -8666,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -8703,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -8740,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -8777,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -8814,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -8851,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -8888,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -8925,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -8962,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -8999,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -9035,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -9072,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -9109,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -9146,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -9183,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -9220,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -9257,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -9294,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -9331,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -9368,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -9405,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -9442,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
@@ -9479,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -9516,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -9553,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -9590,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -9664,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -9701,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -9738,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -9775,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -9812,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
@@ -9849,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
@@ -9886,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -9923,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -9960,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -9997,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -10071,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -10108,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -10145,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -10182,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -10219,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -10255,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -10292,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -10402,7 +10415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
@@ -10439,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
@@ -10476,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
@@ -10513,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -10550,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
@@ -10586,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
@@ -10623,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
@@ -10660,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -10697,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -10733,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -10806,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>200</v>
       </c>
@@ -10843,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>201</v>
       </c>
@@ -10880,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -10917,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -10954,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -10991,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -11028,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -11065,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -11102,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -11139,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -11176,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -11213,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -11250,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -11287,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -11324,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -11361,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -11398,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -11434,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -11471,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -11507,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -11544,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -11581,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -11618,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -11655,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -11692,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -11729,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -11766,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -11803,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -11840,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -11877,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -11914,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -11951,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -11988,7 +12001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -12024,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -12061,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -12098,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -12135,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -12172,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -12209,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -12246,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -12283,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -12320,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -12357,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -12393,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -12430,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -12467,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -12504,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -12541,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -12578,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -12615,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -12652,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -12689,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -12725,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -12761,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -12797,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -12834,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -12871,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -12908,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -12945,7 +12958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -12981,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -13018,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -13055,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -13091,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -13128,7 +13141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -13165,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -13201,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -13238,7 +13251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -13275,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -13312,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -13349,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -13386,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -13423,7 +13436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -13460,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -13496,7 +13509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -13533,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -13570,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -13607,7 +13620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -13644,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -13681,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -13718,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -13755,7 +13768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -13792,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -13829,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -13866,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -13903,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -13940,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -13977,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -14014,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -14051,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -14088,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -14125,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -14162,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -14199,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -14236,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -14273,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -14310,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -14347,7 +14360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
@@ -14384,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -14421,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
@@ -14458,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
@@ -14495,7 +14508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>300</v>
       </c>
@@ -14532,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -14569,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>302</v>
       </c>
@@ -14606,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>303</v>
       </c>
@@ -14643,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>304</v>
       </c>
@@ -14680,7 +14693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -14717,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>306</v>
       </c>
@@ -14754,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>307</v>
       </c>
@@ -14791,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>308</v>
       </c>
@@ -14828,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -14865,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>310</v>
       </c>
@@ -14902,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>311</v>
       </c>
@@ -14939,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>312</v>
       </c>
@@ -14976,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>313</v>
       </c>
@@ -15013,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>314</v>
       </c>
@@ -15050,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>315</v>
       </c>
@@ -15086,7 +15099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>316</v>
       </c>
@@ -15123,7 +15136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>317</v>
       </c>
@@ -15160,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
@@ -15197,7 +15210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>319</v>
       </c>
@@ -15234,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>320</v>
       </c>
@@ -15271,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>321</v>
       </c>
@@ -15308,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>322</v>
       </c>
@@ -15345,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>323</v>
       </c>
@@ -15382,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>324</v>
       </c>
@@ -15419,7 +15432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>325</v>
       </c>
@@ -15456,7 +15469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>326</v>
       </c>
@@ -15492,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>327</v>
       </c>
@@ -15529,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>328</v>
       </c>
@@ -15566,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>329</v>
       </c>
@@ -15603,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>330</v>
       </c>
@@ -15640,7 +15653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>331</v>
       </c>
@@ -15676,7 +15689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>332</v>
       </c>
@@ -15713,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>333</v>
       </c>
@@ -15750,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>334</v>
       </c>
@@ -15787,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>335</v>
       </c>
@@ -15824,7 +15837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>336</v>
       </c>
@@ -15861,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>337</v>
       </c>
@@ -15898,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>338</v>
       </c>
@@ -15935,7 +15948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>339</v>
       </c>
@@ -15972,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>340</v>
       </c>
@@ -16009,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>341</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>342</v>
       </c>
@@ -16083,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>343</v>
       </c>
@@ -16120,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>344</v>
       </c>
@@ -16157,7 +16170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>345</v>
       </c>
@@ -16194,7 +16207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>346</v>
       </c>
@@ -16231,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>347</v>
       </c>
@@ -16268,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>348</v>
       </c>
@@ -16305,7 +16318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>349</v>
       </c>
@@ -16342,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>350</v>
       </c>
@@ -16379,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>351</v>
       </c>
@@ -16416,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>352</v>
       </c>
@@ -16453,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>353</v>
       </c>
@@ -16490,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>354</v>
       </c>
@@ -16527,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>355</v>
       </c>
@@ -16564,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>356</v>
       </c>
@@ -16601,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>357</v>
       </c>
@@ -16638,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>358</v>
       </c>
@@ -16675,7 +16688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>359</v>
       </c>
@@ -16712,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>360</v>
       </c>
@@ -16749,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>361</v>
       </c>
@@ -16786,7 +16799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>362</v>
       </c>
@@ -16823,7 +16836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>363</v>
       </c>
@@ -16860,7 +16873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>364</v>
       </c>
@@ -16897,7 +16910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>365</v>
       </c>
@@ -16934,7 +16947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>366</v>
       </c>
@@ -16971,7 +16984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>367</v>
       </c>
@@ -17008,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>368</v>
       </c>
@@ -17045,7 +17058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>369</v>
       </c>
@@ -17082,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>370</v>
       </c>
@@ -17119,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>371</v>
       </c>
@@ -17156,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>372</v>
       </c>
@@ -17192,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>373</v>
       </c>
@@ -17229,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>374</v>
       </c>
@@ -17266,7 +17279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>375</v>
       </c>
@@ -17303,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>376</v>
       </c>
@@ -17339,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -17376,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>378</v>
       </c>
@@ -17413,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>379</v>
       </c>
@@ -17450,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>380</v>
       </c>
@@ -17487,7 +17500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>381</v>
       </c>
@@ -17524,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>382</v>
       </c>
@@ -17561,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>383</v>
       </c>
@@ -17598,7 +17611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>384</v>
       </c>
@@ -17635,7 +17648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>385</v>
       </c>
@@ -17672,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>386</v>
       </c>
@@ -17709,7 +17722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>387</v>
       </c>
@@ -17746,7 +17759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>388</v>
       </c>
@@ -17783,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>389</v>
       </c>
@@ -17820,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>390</v>
       </c>
@@ -17857,7 +17870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>391</v>
       </c>
@@ -17894,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>392</v>
       </c>
@@ -17931,7 +17944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>393</v>
       </c>
@@ -17968,7 +17981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>394</v>
       </c>
@@ -18005,7 +18018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>395</v>
       </c>
@@ -18042,7 +18055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>396</v>
       </c>
@@ -18079,7 +18092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>397</v>
       </c>
@@ -18116,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>398</v>
       </c>
@@ -18153,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>399</v>
       </c>
@@ -18190,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>400</v>
       </c>
@@ -18227,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>401</v>
       </c>
@@ -18264,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>402</v>
       </c>
@@ -18301,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>403</v>
       </c>
@@ -18338,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>404</v>
       </c>
@@ -18375,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>405</v>
       </c>
@@ -18412,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>406</v>
       </c>
@@ -18449,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>407</v>
       </c>
@@ -18486,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>408</v>
       </c>
@@ -18523,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>409</v>
       </c>
@@ -18560,7 +18573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>410</v>
       </c>
@@ -18597,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>411</v>
       </c>
@@ -18634,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>412</v>
       </c>
@@ -18671,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>413</v>
       </c>
@@ -18708,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>414</v>
       </c>
@@ -18745,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>415</v>
       </c>
@@ -18782,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>416</v>
       </c>
@@ -18819,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>417</v>
       </c>
@@ -18856,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>418</v>
       </c>
@@ -18893,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>419</v>
       </c>
@@ -18930,7 +18943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>420</v>
       </c>
@@ -18967,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>421</v>
       </c>
@@ -19004,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>422</v>
       </c>
@@ -19041,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>423</v>
       </c>
@@ -19078,7 +19091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>424</v>
       </c>
@@ -19115,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>425</v>
       </c>
@@ -19152,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>426</v>
       </c>
@@ -19189,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>427</v>
       </c>
@@ -19226,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>428</v>
       </c>
@@ -19263,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>429</v>
       </c>
@@ -19300,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>430</v>
       </c>
@@ -19337,7 +19350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>431</v>
       </c>
@@ -19374,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>432</v>
       </c>
@@ -19411,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>433</v>
       </c>
@@ -19448,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>434</v>
       </c>
@@ -19485,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>435</v>
       </c>
@@ -19522,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>436</v>
       </c>
@@ -19559,7 +19572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>437</v>
       </c>
@@ -19596,7 +19609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>438</v>
       </c>
@@ -19633,7 +19646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>439</v>
       </c>
@@ -19670,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>440</v>
       </c>
@@ -19707,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>441</v>
       </c>
@@ -19744,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>442</v>
       </c>
@@ -19781,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>443</v>
       </c>
@@ -19818,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>444</v>
       </c>
@@ -19855,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>445</v>
       </c>
@@ -19892,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>446</v>
       </c>
@@ -19929,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>447</v>
       </c>
@@ -19966,7 +19979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>448</v>
       </c>
@@ -20003,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>449</v>
       </c>
@@ -20040,7 +20053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>450</v>
       </c>
@@ -20077,7 +20090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>451</v>
       </c>
@@ -20114,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>452</v>
       </c>
@@ -20151,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>453</v>
       </c>
@@ -20188,7 +20201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>454</v>
       </c>
@@ -20225,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>455</v>
       </c>
@@ -20262,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>456</v>
       </c>
@@ -20299,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>457</v>
       </c>
@@ -20336,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>458</v>
       </c>
@@ -20373,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>459</v>
       </c>
@@ -20410,7 +20423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>460</v>
       </c>
@@ -20447,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>461</v>
       </c>
@@ -20484,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>462</v>
       </c>
@@ -20521,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>463</v>
       </c>
@@ -20558,7 +20571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>464</v>
       </c>
@@ -20595,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>465</v>
       </c>
@@ -20632,7 +20645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>466</v>
       </c>
@@ -20669,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>467</v>
       </c>
@@ -20706,7 +20719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>468</v>
       </c>
@@ -20743,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>469</v>
       </c>
@@ -20780,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>470</v>
       </c>
@@ -20817,7 +20830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>471</v>
       </c>
@@ -20854,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>472</v>
       </c>
@@ -20891,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>473</v>
       </c>
@@ -20914,11 +20927,11 @@
         <v>0</v>
       </c>
       <c r="H475">
-        <v>0</v>
-      </c>
-      <c r="I475" t="b">
+        <v>1</v>
+      </c>
+      <c r="I475" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Neutral</v>
       </c>
       <c r="J475">
         <v>0</v>
@@ -20928,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>474</v>
       </c>
@@ -20965,7 +20978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>475</v>
       </c>
@@ -21002,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>476</v>
       </c>
@@ -21039,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>477</v>
       </c>
@@ -21076,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>478</v>
       </c>
@@ -21113,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>479</v>
       </c>
@@ -21150,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>480</v>
       </c>
@@ -21187,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>481</v>
       </c>
@@ -21224,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>482</v>
       </c>
@@ -21261,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>483</v>
       </c>
@@ -21298,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>484</v>
       </c>
@@ -21335,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>485</v>
       </c>
@@ -21372,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>486</v>
       </c>
@@ -21409,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>487</v>
       </c>
@@ -21446,7 +21459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>488</v>
       </c>
@@ -21483,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>489</v>
       </c>
@@ -21520,7 +21533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>490</v>
       </c>
@@ -21557,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>491</v>
       </c>
@@ -21594,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>492</v>
       </c>
@@ -21631,7 +21644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>493</v>
       </c>
@@ -21668,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>494</v>
       </c>
@@ -21705,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>495</v>
       </c>
@@ -21742,7 +21755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>496</v>
       </c>
@@ -21779,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>497</v>
       </c>
@@ -21816,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>498</v>
       </c>
@@ -21853,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>499</v>
       </c>
@@ -21890,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>500</v>
       </c>
@@ -21927,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>501</v>
       </c>
@@ -21964,7 +21977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>502</v>
       </c>
@@ -22001,7 +22014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>503</v>
       </c>
@@ -22038,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>504</v>
       </c>
@@ -22075,7 +22088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>505</v>
       </c>
@@ -22112,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>506</v>
       </c>
@@ -22149,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>507</v>
       </c>
@@ -22186,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>508</v>
       </c>
@@ -22223,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>509</v>
       </c>
@@ -22260,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>510</v>
       </c>
@@ -22297,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>511</v>
       </c>
@@ -22334,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>512</v>
       </c>
@@ -22371,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>513</v>
       </c>
@@ -22408,7 +22421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>514</v>
       </c>
@@ -22445,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>515</v>
       </c>
@@ -22482,7 +22495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>516</v>
       </c>
@@ -22519,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>517</v>
       </c>
@@ -22556,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>518</v>
       </c>
@@ -22593,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>519</v>
       </c>
@@ -22630,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>520</v>
       </c>
@@ -22667,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>521</v>
       </c>
@@ -22704,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>522</v>
       </c>
@@ -22741,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>523</v>
       </c>
@@ -22778,7 +22791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>524</v>
       </c>
@@ -22815,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>525</v>
       </c>
@@ -22852,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>526</v>
       </c>
@@ -22889,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>527</v>
       </c>
@@ -22926,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>528</v>
       </c>
@@ -22963,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>529</v>
       </c>
@@ -23000,7 +23013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>530</v>
       </c>
@@ -23037,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>531</v>
       </c>
@@ -23074,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>532</v>
       </c>
@@ -23111,7 +23124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>533</v>
       </c>
@@ -23148,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>534</v>
       </c>
@@ -23185,7 +23198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>535</v>
       </c>
@@ -23222,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>536</v>
       </c>
@@ -23259,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>537</v>
       </c>
@@ -23296,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>538</v>
       </c>
@@ -23333,7 +23346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>539</v>
       </c>
@@ -23370,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>540</v>
       </c>
@@ -23407,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>541</v>
       </c>
@@ -23444,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>542</v>
       </c>
@@ -23481,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>543</v>
       </c>
@@ -23518,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>544</v>
       </c>
@@ -23555,7 +23568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>545</v>
       </c>
@@ -23592,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>546</v>
       </c>
@@ -23629,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>547</v>
       </c>
@@ -23666,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>548</v>
       </c>
@@ -23703,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>549</v>
       </c>
@@ -23740,7 +23753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>550</v>
       </c>
@@ -23777,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>551</v>
       </c>
@@ -23814,7 +23827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>552</v>
       </c>
@@ -23851,7 +23864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>553</v>
       </c>
@@ -23888,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>554</v>
       </c>
@@ -23925,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>555</v>
       </c>
@@ -23962,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>556</v>
       </c>
@@ -23999,7 +24012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>557</v>
       </c>
@@ -24036,7 +24049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>558</v>
       </c>
@@ -24073,7 +24086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>559</v>
       </c>
@@ -24110,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>560</v>
       </c>
@@ -24147,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>561</v>
       </c>
@@ -24184,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>562</v>
       </c>
@@ -24221,7 +24234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>563</v>
       </c>
@@ -24258,7 +24271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>564</v>
       </c>
@@ -24295,7 +24308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>565</v>
       </c>
@@ -24332,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>566</v>
       </c>
@@ -24369,7 +24382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>567</v>
       </c>
@@ -24406,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>568</v>
       </c>
@@ -24443,7 +24456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>569</v>
       </c>
@@ -24480,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>570</v>
       </c>
@@ -24517,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>571</v>
       </c>
@@ -24554,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>572</v>
       </c>
@@ -24591,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>573</v>
       </c>
@@ -24628,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>574</v>
       </c>
@@ -24665,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>575</v>
       </c>
@@ -24702,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>576</v>
       </c>
@@ -24739,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>577</v>
       </c>
@@ -24776,7 +24789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>578</v>
       </c>
@@ -24813,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>579</v>
       </c>
@@ -24850,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>580</v>
       </c>
@@ -24887,7 +24900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>581</v>
       </c>
@@ -24924,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>582</v>
       </c>
@@ -24961,7 +24974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>583</v>
       </c>
@@ -24998,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>584</v>
       </c>
@@ -25035,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>585</v>
       </c>
@@ -25072,7 +25085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>586</v>
       </c>
@@ -25109,7 +25122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>587</v>
       </c>
@@ -25146,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>588</v>
       </c>
@@ -25183,7 +25196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>589</v>
       </c>
@@ -25220,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>590</v>
       </c>
@@ -25257,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>591</v>
       </c>
@@ -25294,7 +25307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>592</v>
       </c>
@@ -25331,7 +25344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>593</v>
       </c>
@@ -25368,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>594</v>
       </c>
@@ -25405,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>595</v>
       </c>
@@ -25442,7 +25455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>596</v>
       </c>
@@ -25479,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>597</v>
       </c>
@@ -25516,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>598</v>
       </c>
@@ -25553,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>599</v>
       </c>
@@ -25590,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>600</v>
       </c>
@@ -25627,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>601</v>
       </c>
@@ -25664,7 +25677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>602</v>
       </c>
@@ -25701,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>603</v>
       </c>
@@ -25738,7 +25751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>604</v>
       </c>
@@ -25775,7 +25788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>605</v>
       </c>
@@ -25812,7 +25825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>606</v>
       </c>
@@ -25849,7 +25862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>607</v>
       </c>
@@ -25886,7 +25899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>608</v>
       </c>
@@ -25923,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>609</v>
       </c>
@@ -25960,7 +25973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>610</v>
       </c>
@@ -25997,7 +26010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>611</v>
       </c>
@@ -26034,7 +26047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>612</v>
       </c>
@@ -26071,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>613</v>
       </c>
@@ -26108,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>614</v>
       </c>
@@ -26145,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>615</v>
       </c>
@@ -26182,7 +26195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>616</v>
       </c>
@@ -26219,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>617</v>
       </c>
@@ -26256,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>618</v>
       </c>
@@ -26293,7 +26306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>619</v>
       </c>
@@ -26330,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>620</v>
       </c>
@@ -26367,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>621</v>
       </c>
@@ -26404,7 +26417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>622</v>
       </c>
@@ -26441,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>623</v>
       </c>
@@ -26478,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>624</v>
       </c>
@@ -26515,7 +26528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>625</v>
       </c>
@@ -26552,7 +26565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>626</v>
       </c>
@@ -26589,7 +26602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>627</v>
       </c>
@@ -26626,7 +26639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>628</v>
       </c>
@@ -26663,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>629</v>
       </c>
@@ -26700,7 +26713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>630</v>
       </c>
@@ -26737,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>631</v>
       </c>
@@ -26774,7 +26787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>632</v>
       </c>
@@ -26811,7 +26824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>633</v>
       </c>
@@ -26848,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>634</v>
       </c>
@@ -26885,7 +26898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>635</v>
       </c>
@@ -26922,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>636</v>
       </c>
@@ -26959,7 +26972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>637</v>
       </c>
@@ -26996,7 +27009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>638</v>
       </c>
@@ -27033,7 +27046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>639</v>
       </c>
@@ -27070,7 +27083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>640</v>
       </c>
@@ -27107,7 +27120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>641</v>
       </c>
@@ -27144,7 +27157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>642</v>
       </c>
@@ -27181,7 +27194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>643</v>
       </c>
@@ -27218,7 +27231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>644</v>
       </c>
@@ -27255,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>645</v>
       </c>
@@ -27292,7 +27305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>646</v>
       </c>
@@ -27329,7 +27342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>647</v>
       </c>
@@ -27366,7 +27379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>648</v>
       </c>
@@ -27403,7 +27416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>649</v>
       </c>
@@ -27440,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>650</v>
       </c>
@@ -27477,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>651</v>
       </c>
@@ -27514,7 +27527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>652</v>
       </c>
@@ -27551,7 +27564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>653</v>
       </c>
@@ -27588,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>654</v>
       </c>
@@ -27625,7 +27638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>655</v>
       </c>
@@ -27662,7 +27675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>656</v>
       </c>
@@ -27699,7 +27712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>657</v>
       </c>
@@ -27736,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>658</v>
       </c>
@@ -27773,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>659</v>
       </c>
@@ -27810,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>660</v>
       </c>
@@ -27847,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>661</v>
       </c>
@@ -27884,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>662</v>
       </c>
@@ -27921,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>663</v>
       </c>
@@ -27958,7 +27971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>664</v>
       </c>
@@ -27995,7 +28008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>665</v>
       </c>
@@ -28032,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>666</v>
       </c>
@@ -28069,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>667</v>
       </c>
@@ -28106,7 +28119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>668</v>
       </c>
@@ -28143,7 +28156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>669</v>
       </c>
@@ -28180,7 +28193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>670</v>
       </c>
@@ -28217,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>671</v>
       </c>
@@ -28254,7 +28267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>672</v>
       </c>
@@ -28291,7 +28304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>673</v>
       </c>
@@ -28328,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>674</v>
       </c>
@@ -28365,7 +28378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>675</v>
       </c>
@@ -28402,7 +28415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>676</v>
       </c>
@@ -28439,7 +28452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>677</v>
       </c>
@@ -28476,7 +28489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>678</v>
       </c>
@@ -28513,7 +28526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>679</v>
       </c>
@@ -28550,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>680</v>
       </c>
@@ -28587,7 +28600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>681</v>
       </c>
@@ -28624,7 +28637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>682</v>
       </c>
@@ -28661,7 +28674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>683</v>
       </c>
@@ -28698,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>684</v>
       </c>
@@ -28735,7 +28748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>685</v>
       </c>
@@ -28772,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>686</v>
       </c>
@@ -28809,7 +28822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>687</v>
       </c>
@@ -28846,7 +28859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>688</v>
       </c>
@@ -28883,7 +28896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>689</v>
       </c>
@@ -28920,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>690</v>
       </c>
@@ -28957,7 +28970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>691</v>
       </c>
@@ -28994,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>692</v>
       </c>
@@ -29031,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>693</v>
       </c>
@@ -29068,7 +29081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>694</v>
       </c>
@@ -29105,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>695</v>
       </c>
@@ -29142,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>696</v>
       </c>
@@ -29179,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>697</v>
       </c>
@@ -29216,7 +29229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>698</v>
       </c>
@@ -29253,7 +29266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>699</v>
       </c>
@@ -29290,7 +29303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>700</v>
       </c>
@@ -29327,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>701</v>
       </c>
@@ -29364,7 +29377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>702</v>
       </c>
@@ -29401,7 +29414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>703</v>
       </c>
@@ -29438,7 +29451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>704</v>
       </c>
@@ -29475,7 +29488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>705</v>
       </c>
@@ -29512,7 +29525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>706</v>
       </c>
@@ -29549,7 +29562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>707</v>
       </c>
@@ -29586,7 +29599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>708</v>
       </c>
@@ -29623,7 +29636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>709</v>
       </c>
@@ -29660,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>710</v>
       </c>
@@ -29697,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>711</v>
       </c>
@@ -29734,7 +29747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>712</v>
       </c>
@@ -29771,7 +29784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>713</v>
       </c>
@@ -29808,7 +29821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>714</v>
       </c>
@@ -29845,7 +29858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>715</v>
       </c>
@@ -29882,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>716</v>
       </c>
@@ -29919,7 +29932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>717</v>
       </c>
@@ -29956,7 +29969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>718</v>
       </c>
@@ -29993,7 +30006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>719</v>
       </c>
@@ -30030,7 +30043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>720</v>
       </c>
@@ -30067,7 +30080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>721</v>
       </c>
@@ -30104,7 +30117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>722</v>
       </c>
@@ -30141,7 +30154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>723</v>
       </c>
@@ -30178,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>724</v>
       </c>
@@ -30215,7 +30228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>725</v>
       </c>
@@ -30252,7 +30265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>726</v>
       </c>
@@ -30289,7 +30302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>727</v>
       </c>
@@ -30326,7 +30339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>728</v>
       </c>
@@ -30363,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>729</v>
       </c>
@@ -30400,7 +30413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>730</v>
       </c>
@@ -30437,7 +30450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>731</v>
       </c>
@@ -30474,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>732</v>
       </c>
@@ -30511,7 +30524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>733</v>
       </c>
@@ -30548,7 +30561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>734</v>
       </c>
@@ -30585,7 +30598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>735</v>
       </c>
@@ -30622,7 +30635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>736</v>
       </c>
@@ -30659,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>737</v>
       </c>
@@ -30696,7 +30709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>738</v>
       </c>
@@ -30733,7 +30746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>739</v>
       </c>
@@ -30770,7 +30783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>740</v>
       </c>
@@ -30807,7 +30820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>741</v>
       </c>
@@ -30844,7 +30857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>742</v>
       </c>
@@ -30881,7 +30894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>743</v>
       </c>
@@ -30918,7 +30931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>744</v>
       </c>
@@ -30955,7 +30968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>745</v>
       </c>
@@ -30992,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>746</v>
       </c>
@@ -31029,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>747</v>
       </c>
@@ -31066,7 +31079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>748</v>
       </c>
@@ -31103,7 +31116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>749</v>
       </c>
@@ -31140,7 +31153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>750</v>
       </c>
@@ -31177,7 +31190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>751</v>
       </c>
@@ -31214,7 +31227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>752</v>
       </c>
@@ -31251,7 +31264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>753</v>
       </c>
@@ -31288,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>754</v>
       </c>
@@ -31325,7 +31338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>755</v>
       </c>
@@ -31362,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>756</v>
       </c>
@@ -31399,7 +31412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>757</v>
       </c>
@@ -31436,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>758</v>
       </c>
@@ -31473,7 +31486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>759</v>
       </c>
@@ -31510,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>760</v>
       </c>
@@ -31547,7 +31560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>761</v>
       </c>
@@ -31584,7 +31597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>762</v>
       </c>
@@ -31621,7 +31634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>763</v>
       </c>
@@ -31658,7 +31671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
         <v>764</v>
       </c>
@@ -31695,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
         <v>765</v>
       </c>
@@ -31732,10 +31745,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -31746,131 +31759,131 @@
       <c r="H769" s="2"/>
       <c r="I769" s="2"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="I770" s="2"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="I771" s="2"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="I772" s="2"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="I773" s="2"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="I774" s="2"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="I775" s="2"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="I776" s="2"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="I777" s="2"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="I778" s="2"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="I779" s="2"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="I780" s="2"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="I781" s="2"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="I782" s="2"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="I783" s="2"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="I784" s="2"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="I785" s="2"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="I786" s="2"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="I787" s="2"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="I788" s="2"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="I789" s="2"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="I790" s="2"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="I791" s="2"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="I792" s="2"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="I793" s="2"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="I794" s="2"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="I795" s="2"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="I796" s="2"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="I797" s="2"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="I798" s="2"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="I799" s="2"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="I800" s="2"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="I801" s="2"/>
     </row>

--- a/Annotated_Emotion_Data.xlsx
+++ b/Annotated_Emotion_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro Millan Ruiz\Desktop\dsp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72423676-3945-4136-9326-0BF55F10D6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0185F-F817-44C0-8A0C-A189D93182A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="779">
   <si>
     <t>https://lh4.ggpht.com/RcottnlLRe9AZBQe8H1U-_2sbesuVL5lksBhPszE47-eLrIzrbX5cUNzhsVlDDbIYiqL2jR0wWx82FKQA5YN50h_tlw=s0</t>
   </si>
@@ -2367,13 +2367,16 @@
   </si>
   <si>
     <t>Comparison</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,8 +2519,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,8 +2706,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2828,6 +2843,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2874,7 +2902,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2886,6 +2914,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2932,7 +2968,144 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2974,6 +3147,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2496DF01-8E1F-4C3F-B53D-20267B8104CE}" name="Table2" displayName="Table2" ref="A1:H768" totalsRowCount="1" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:H767" xr:uid="{2496DF01-8E1F-4C3F-B53D-20267B8104CE}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0AB31B11-92D5-429B-96D5-08A6F799CE69}" name="Image URL" totalsRowLabel="Total" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{E6E63F4D-86A8-4399-B758-1AD3EE22553B}" name="Angry" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{D3123506-717E-4294-8881-AB2CFFAAF65A}" name="Sad " totalsRowFunction="count"/>
+    <tableColumn id="4" xr3:uid="{21511BB0-C242-410A-A2ED-9EEA0891B1E7}" name="Happy" totalsRowFunction="count"/>
+    <tableColumn id="5" xr3:uid="{D97D38C8-27B2-4905-B806-17038F792BB3}" name="Fear" totalsRowFunction="count"/>
+    <tableColumn id="6" xr3:uid="{96E5A548-BF3F-4A97-89A3-A63A6FFD9966}" name="Surprise" totalsRowFunction="count"/>
+    <tableColumn id="7" xr3:uid="{41A36080-1B6C-485A-832F-3023A25C3C09}" name="Disgust" totalsRowFunction="count"/>
+    <tableColumn id="8" xr3:uid="{8FE2A978-974D-4435-833C-9269DC73AD52}" name="Neutral" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3275,40 +3465,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H476" sqref="H476"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>771</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -5972,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="7"/>
@@ -7817,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="7"/>
@@ -13531,9 +13724,6 @@
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="H275">
-        <v>1</v>
-      </c>
       <c r="I275" t="str">
         <f t="shared" si="15"/>
         <v>Angry</v>
@@ -31746,21 +31936,74 @@
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A768" s="2"/>
+      <c r="A768" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B768">
+        <f>SUBTOTAL(103,Table2[Angry])</f>
+        <v>766</v>
+      </c>
+      <c r="C768">
+        <f>SUBTOTAL(103,Table2[[Sad ]])</f>
+        <v>766</v>
+      </c>
+      <c r="D768">
+        <f ca="1">SUBTOTAL(103,Table2[Happy])</f>
+        <v>58</v>
+      </c>
+      <c r="E768">
+        <f ca="1">SUBTOTAL(103,Table2[Fear])</f>
+        <v>31</v>
+      </c>
+      <c r="F768">
+        <f ca="1">SUBTOTAL(103,Table2[Surprise])</f>
+        <v>31</v>
+      </c>
+      <c r="G768">
+        <f ca="1">SUBTOTAL(103,Table2[Disgust])</f>
+        <v>31</v>
+      </c>
+      <c r="H768">
+        <f ca="1">SUBTOTAL(103,Table2[Neutral])</f>
+        <v>468</v>
+      </c>
+      <c r="I768" s="2"/>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A769" s="2"/>
-      <c r="B769" s="2"/>
-      <c r="C769" s="2"/>
-      <c r="D769" s="2"/>
-      <c r="E769" s="2"/>
-      <c r="F769" s="2"/>
-      <c r="G769" s="2"/>
-      <c r="H769" s="2"/>
+      <c r="A769" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B769" s="2">
+        <f>COUNTIF(B2:B767,1)</f>
+        <v>59</v>
+      </c>
+      <c r="C769" s="2">
+        <f>COUNTIF(C2:C767,1)</f>
+        <v>49</v>
+      </c>
+      <c r="D769" s="2">
+        <f t="shared" ref="D769:G769" ca="1" si="34">COUNTIF(D2:D767,1)</f>
+        <v>59</v>
+      </c>
+      <c r="E769" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="F769" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="G769" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="H769" s="2">
+        <f ca="1">COUNTIF(H2:H767,1)</f>
+        <v>0</v>
+      </c>
       <c r="I769" s="2"/>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A770" s="2"/>
       <c r="I770" s="2"/>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.3">
@@ -31883,24 +32126,58 @@
       <c r="A800" s="2"/>
       <c r="I800" s="2"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
-      <c r="I801" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1 K201:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K100">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:K200">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B767">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C767">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D767">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E767">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F767">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G767">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H767">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -32673,5 +32950,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId767"/>
+  <tableParts count="1">
+    <tablePart r:id="rId768"/>
+  </tableParts>
 </worksheet>
 </file>